--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.8.6.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.8.6.xlsx
@@ -51,6 +51,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1377,7 +1379,7 @@
     <t xml:space="preserve">TIRA_DE_PRECIO_MULTICATEGORIA</t>
   </si>
   <si>
-    <t xml:space="preserve">TIRA DE PRECIO_+ NCB's + Agua,TIRA_DE_PRECIO__COLAS</t>
+    <t xml:space="preserve">TIRA_DE_PRECIO__NCBS + AGUA,TIRA_DE_PRECIO__COLAS</t>
   </si>
   <si>
     <t xml:space="preserve">TIRA_DE_PRECIO__COLAS,TIRA_DE_PRECIO__NCBS + AGUA,TIRA_DE_PRECIO_FRUTALES</t>
@@ -2186,12 +2188,12 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.5587044534413"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.8056680161943"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="117.186234817814"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="119.331983805668"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -4226,11 +4228,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4402,17 +4404,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="61" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="61" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="59.663967611336"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="61" width="59.663967611336"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="88.8016194331984"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="61" width="65.0202429149798"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="61" width="56.8785425101215"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="60.7368421052632"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="86.8744939271255"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="61" width="60.7368421052632"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="90.2995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="61" width="66.0931174089069"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="61" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="61" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="61" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="61" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="61" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="61" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="61" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="61" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="61" width="11.6761133603239"/>
@@ -4739,14 +4741,14 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.2429149797571"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="86.7651821862348"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="69.6275303643725"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="88.3724696356275"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="70.8056680161943"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -5281,19 +5283,19 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.7408906882591"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.3846153846154"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="51.417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7732793522267"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="52.2753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -5416,14 +5418,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.0607287449393"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.8785425101215"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="61.8056680161943"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5613,21 +5615,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="77.6599190283401"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="59.663967611336"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.5951417004049"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="71.2348178137652"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="42.7408906882591"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="60.7368421052632"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.3441295546559"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="43.5991902834008"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -6106,14 +6108,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -6243,11 +6245,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="70.5910931174089"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.7692307692308"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.4534412955466"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="101.975708502024"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="103.797570850202"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -6508,14 +6510,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="61" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="61" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="61" width="56.4534412955466"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="61" width="69.7327935222672"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="61" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="61" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="61" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="61" width="70.9109311740891"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="61" width="74.9838056680162"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="61" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="61" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="94.2631578947368"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="61" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="95.8704453441296"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="61" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="61" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="61" width="13.3886639676113"/>
@@ -7021,20 +7023,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="59.663967611336"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="63.5222672064777"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="56.8785425101215"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="60.7368421052632"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="86.8744939271255"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -7248,19 +7250,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="63.412955465587"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -7457,10 +7459,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.3076923076923"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.8.6.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.8.6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -53,6 +53,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="328">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -2177,10 +2178,10 @@
   </sheetPr>
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G51" activeCellId="0" sqref="G51"/>
+      <selection pane="bottomLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2188,12 +2189,12 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.8785425101215"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="119.331983805668"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.8461538461539"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.412955465587"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="120.400809716599"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -3037,7 +3038,9 @@
       <c r="D33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="F33" s="9"/>
       <c r="G33" s="12" t="s">
         <v>13</v>
@@ -3050,7 +3053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>27</v>
       </c>
@@ -3061,7 +3064,9 @@
       <c r="D34" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="F34" s="9" t="s">
         <v>100</v>
       </c>
@@ -3076,7 +3081,7 @@
       </c>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>28</v>
       </c>
@@ -3087,7 +3092,9 @@
       <c r="D35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="F35" s="9" t="s">
         <v>90</v>
       </c>
@@ -3102,7 +3109,7 @@
       </c>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>103</v>
       </c>
@@ -3113,7 +3120,9 @@
       <c r="D36" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="F36" s="9" t="s">
         <v>79</v>
       </c>
@@ -3124,7 +3133,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="64" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>29</v>
       </c>
@@ -3135,7 +3144,9 @@
       <c r="D37" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="F37" s="9" t="s">
         <v>106</v>
       </c>
@@ -3150,7 +3161,7 @@
       </c>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>30</v>
       </c>
@@ -3161,7 +3172,9 @@
       <c r="D38" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="F38" s="9" t="s">
         <v>108</v>
       </c>
@@ -4228,11 +4241,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4404,17 +4417,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="61" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="61" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="60.7368421052632"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="86.8744939271255"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="61" width="60.7368421052632"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="90.2995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="61" width="66.0931174089069"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="61" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="61.2712550607287"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="61" width="61.2712550607287"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="91.1578947368421"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="61" width="66.6275303643725"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="61" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="61" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="61" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="61" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="61" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="61" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="61" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="61" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="61" width="11.6761133603239"/>
@@ -4741,14 +4754,14 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.4574898785425"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="88.3724696356275"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="70.8056680161943"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="89.1214574898785"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="71.3400809716599"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -5282,20 +5295,20 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.7044534412955"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7732793522267"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="52.2753036437247"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="52.7044534412956"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -5418,14 +5431,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.8785425101215"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.412955465587"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="62.8785425101215"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="63.412955465587"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5615,21 +5628,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="78.3036437246964"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="60.7368421052632"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.3441295546559"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="72.5182186234818"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.2712550607287"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="73.1619433198381"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="43.919028340081"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -6108,14 +6121,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -6245,11 +6258,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="72.4129554655871"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="103.797570850202"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="104.655870445344"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -6510,14 +6523,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="61" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="61" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="61" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="61" width="70.9109311740891"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="61" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="61" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="61" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="61" width="71.4493927125506"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="61" width="75.6275303643725"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="61" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="61" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="95.8704453441296"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="61" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="96.7287449392713"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="61" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="61" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="61" width="13.3886639676113"/>
@@ -7023,20 +7036,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="60.7368421052632"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="86.8744939271255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="64.7004048582996"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="61.2712550607287"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -7250,19 +7263,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="63.412955465587"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -7459,10 +7472,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.3805668016194"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
